--- a/dumps/Stocks/ITC Hotels Ltd.xlsx
+++ b/dumps/Stocks/ITC Hotels Ltd.xlsx
@@ -16,10 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$₹]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd-mmm-yyyy"/>
     <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -204,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -442,6 +443,7 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,7 +751,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP983"/>
+  <dimension ref="A1:AP984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1098,43 +1100,47 @@
       <c r="AP4" s="56" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="88" t="n">
-        <v>46057</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="A5" s="89" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>184.67</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>1859.77</v>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
+      <c r="E5" t="n">
+        <v>181.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1830.4</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>11.22</v>
+      <c r="H5" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="88" t="n">
-        <v>46017</v>
+        <v>46057</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1147,13 +1153,13 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>195.5</v>
+        <v>184.67</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>9647.57</v>
+        <v>1859.77</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
@@ -1161,10 +1167,10 @@
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>9.619999999999999</v>
+        <v>1.85</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>58.45</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="7">
@@ -1182,13 +1188,13 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>195.45</v>
+        <v>195.5</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>196.85</v>
+        <v>9647.57</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
@@ -1196,15 +1202,15 @@
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.2</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1.2</v>
+        <v>58.45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="88" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1217,13 +1223,13 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>195.82</v>
+        <v>195.45</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1972.08</v>
+        <v>196.85</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1231,15 +1237,15 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>1.95</v>
+        <v>0.2</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>11.93</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="88" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1255,10 +1261,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>195.75</v>
+        <v>195.82</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1971.38</v>
+        <v>1972.08</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1274,7 +1280,7 @@
     </row>
     <row r="10">
       <c r="A10" s="88" t="n">
-        <v>46008</v>
+        <v>46014</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1287,13 +1293,13 @@
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>191.85</v>
+        <v>195.75</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3670.99</v>
+        <v>1971.38</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1301,10 +1307,10 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3.67</v>
+        <v>1.95</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>22.17</v>
+        <v>11.93</v>
       </c>
     </row>
     <row r="11">
@@ -1322,13 +1328,13 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>191.9</v>
+        <v>191.85</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2125.88</v>
+        <v>3670.99</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1336,19 +1342,19 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>2.12</v>
+        <v>3.67</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>12.86</v>
+        <v>22.17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="88" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1357,13 +1363,13 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>191.4</v>
+        <v>191.9</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>15420.96</v>
+        <v>2125.88</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1371,19 +1377,19 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>15.28</v>
+        <v>2.12</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>93.68000000000001</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="88" t="n">
-        <v>45968</v>
+        <v>46007</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1392,13 +1398,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>209.1</v>
+        <v>191.4</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1052.93</v>
+        <v>15420.96</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1406,10 +1412,10 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>1.05</v>
+        <v>15.28</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>6.38</v>
+        <v>93.68000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -1449,7 +1455,7 @@
     </row>
     <row r="15">
       <c r="A15" s="88" t="n">
-        <v>45959</v>
+        <v>45968</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1462,13 +1468,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>220.75</v>
+        <v>209.1</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>889.24</v>
+        <v>1052.93</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1476,10 +1482,10 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.88</v>
+        <v>1.05</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>5.36</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="16">
@@ -1497,13 +1503,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>220.78</v>
+        <v>220.75</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1334.03</v>
+        <v>889.24</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1511,19 +1517,19 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>1.33</v>
+        <v>0.88</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>8.02</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="88" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -1532,13 +1538,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>220.1</v>
+        <v>220.78</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>5541.56</v>
+        <v>1334.03</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1546,19 +1552,19 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>5.51</v>
+        <v>1.33</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>33.55</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="88" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -1567,13 +1573,13 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>223.62</v>
+        <v>220.1</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>450.41</v>
+        <v>5541.56</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1581,10 +1587,10 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.45</v>
+        <v>5.51</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>2.72</v>
+        <v>33.55</v>
       </c>
     </row>
     <row r="19">
@@ -1602,13 +1608,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>223.63</v>
+        <v>223.62</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>675.64</v>
+        <v>450.41</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1616,19 +1622,19 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.67</v>
+        <v>0.45</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>4.08</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="88" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -1637,13 +1643,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>222.9</v>
+        <v>223.63</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>4489.53</v>
+        <v>675.64</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1651,19 +1657,19 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>4.45</v>
+        <v>0.67</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>27.08</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="88" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1672,13 +1678,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>220.28</v>
+        <v>222.9</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>4214.96</v>
+        <v>4489.53</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1686,10 +1692,10 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>4.19</v>
+        <v>4.45</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>25.45</v>
+        <v>27.08</v>
       </c>
     </row>
     <row r="22">
@@ -1707,13 +1713,13 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>220.19</v>
+        <v>220.28</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>221.75</v>
+        <v>4214.96</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1721,19 +1727,19 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.22</v>
+        <v>4.19</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>1.34</v>
+        <v>25.45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="88" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -1742,13 +1748,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>217.4</v>
+        <v>220.19</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>1970.51</v>
+        <v>221.75</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1756,15 +1762,15 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>1.96</v>
+        <v>0.22</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>11.95</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="88" t="n">
-        <v>45903</v>
+        <v>45947</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
@@ -1777,13 +1783,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>251.85</v>
+        <v>217.4</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>2790.03</v>
+        <v>1970.51</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1791,10 +1797,10 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>2.78</v>
+        <v>1.96</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>16.9</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="25">
@@ -1812,13 +1818,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>251.9</v>
+        <v>251.85</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>2283.21</v>
+        <v>2790.03</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1826,113 +1832,50 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>2.28</v>
+        <v>2.78</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>13.83</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B26" s="39" t="inlineStr">
+      <c r="A26" s="88" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C26" s="39" t="inlineStr">
+      <c r="C26" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D26" s="40" t="n">
-        <v>20</v>
-      </c>
-      <c r="E26" s="41" t="n">
-        <v>221.84</v>
-      </c>
-      <c r="F26" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G26" s="39" t="inlineStr">
+      <c r="D26" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>251.9</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>2283.21</v>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H26" s="40" t="n"/>
-      <c r="I26" s="40" t="n"/>
-      <c r="J26" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K26" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N26" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O26" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S26" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W26" s="44" t="n"/>
-      <c r="X26" s="44" t="n"/>
-      <c r="Y26" s="43">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z26" s="44" t="n"/>
-      <c r="AA26" s="44" t="n"/>
-      <c r="AB26" s="45" t="n"/>
-      <c r="AC26" s="46">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD26" s="47" t="n"/>
+      <c r="H26" s="0" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>13.83</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B27" s="39" t="inlineStr">
         <is>
@@ -1945,13 +1888,13 @@
         </is>
       </c>
       <c r="D27" s="40" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E27" s="41" t="n">
-        <v>218.95</v>
+        <v>221.84</v>
       </c>
       <c r="F27" s="41">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G27" s="39" t="inlineStr">
@@ -1966,71 +1909,71 @@
         <v/>
       </c>
       <c r="K27" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N27" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O27" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S27" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W27" s="44" t="n"/>
       <c r="X27" s="44" t="n"/>
       <c r="Y27" s="43">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z27" s="44" t="n"/>
       <c r="AA27" s="44" t="n"/>
       <c r="AB27" s="45" t="n"/>
       <c r="AC27" s="46">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD27" s="47" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="38" t="n">
-        <v>45903</v>
+        <v>45947</v>
       </c>
       <c r="B28" s="39" t="inlineStr">
         <is>
@@ -2046,85 +1989,82 @@
         <v>9</v>
       </c>
       <c r="E28" s="41" t="n">
-        <v>253.69</v>
-      </c>
-      <c r="F28" s="41" t="n">
-        <v>2283.21</v>
+        <v>218.95</v>
+      </c>
+      <c r="F28" s="41">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G28" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H28" s="40" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="I28" s="40" t="n">
-        <v>13.83</v>
-      </c>
+      <c r="H28" s="40" t="n"/>
+      <c r="I28" s="40" t="n"/>
       <c r="J28" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K28" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N28" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O28" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S28" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W28" s="44" t="n"/>
       <c r="X28" s="44" t="n"/>
       <c r="Y28" s="43">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z28" s="44" t="n"/>
       <c r="AA28" s="44" t="n"/>
       <c r="AB28" s="45" t="n"/>
       <c r="AC28" s="46">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD28" s="47" t="n"/>
@@ -2144,13 +2084,13 @@
         </is>
       </c>
       <c r="D29" s="40" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E29" s="41" t="n">
-        <v>253.64</v>
+        <v>253.69</v>
       </c>
       <c r="F29" s="41" t="n">
-        <v>2790.03</v>
+        <v>2283.21</v>
       </c>
       <c r="G29" s="39" t="inlineStr">
         <is>
@@ -2158,190 +2098,275 @@
         </is>
       </c>
       <c r="H29" s="40" t="n">
-        <v>2.78</v>
+        <v>2.28</v>
       </c>
       <c r="I29" s="40" t="n">
-        <v>16.9</v>
+        <v>13.83</v>
       </c>
       <c r="J29" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K29" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N29" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O29" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S29" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W29" s="44" t="n"/>
       <c r="X29" s="44" t="n"/>
       <c r="Y29" s="43">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z29" s="44" t="n"/>
       <c r="AA29" s="44" t="n"/>
       <c r="AB29" s="45" t="n"/>
       <c r="AC29" s="46">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD29" s="47" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="48" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B30" s="52" t="inlineStr">
+      <c r="A30" s="38" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B30" s="39" t="inlineStr">
         <is>
-          <t>DMRGR</t>
+          <t>BSE</t>
         </is>
       </c>
-      <c r="C30" s="52" t="inlineStr">
+      <c r="C30" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D30" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="51" t="n">
-        <v>164</v>
-      </c>
-      <c r="F30" s="51" t="n">
-        <v>167</v>
-      </c>
-      <c r="G30" s="52" t="n"/>
-      <c r="H30" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="50" t="n">
-        <v>0</v>
+      <c r="D30" s="40" t="n">
+        <v>11</v>
+      </c>
+      <c r="E30" s="41" t="n">
+        <v>253.64</v>
+      </c>
+      <c r="F30" s="41" t="n">
+        <v>2790.03</v>
+      </c>
+      <c r="G30" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H30" s="40" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I30" s="40" t="n">
+        <v>16.9</v>
       </c>
       <c r="J30" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K30" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L30" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M30" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N30" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O30" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P30" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R30" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S30" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T30" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U30" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V30" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W30" s="44" t="n"/>
       <c r="X30" s="44" t="n"/>
       <c r="Y30" s="43">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z30" s="44" t="n"/>
       <c r="AA30" s="44" t="n"/>
       <c r="AB30" s="45" t="n"/>
       <c r="AC30" s="46">
+        <f>if(B8="DIV", F8,"")</f>
+        <v/>
+      </c>
+      <c r="AD30" s="47" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="48" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B31" s="52" t="inlineStr">
+        <is>
+          <t>DMRGR</t>
+        </is>
+      </c>
+      <c r="C31" s="52" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D31" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="51" t="n">
+        <v>164</v>
+      </c>
+      <c r="F31" s="51" t="n">
+        <v>167</v>
+      </c>
+      <c r="G31" s="52" t="n"/>
+      <c r="H31" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K31" s="43">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="L31" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <v/>
+      </c>
+      <c r="M31" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <v/>
+      </c>
+      <c r="N31" s="45">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <v/>
+      </c>
+      <c r="O31" s="43">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="P31" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <v/>
+      </c>
+      <c r="Q31" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <v/>
+      </c>
+      <c r="R31" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <v/>
+      </c>
+      <c r="S31" s="43">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="T31" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <v/>
+      </c>
+      <c r="U31" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <v/>
+      </c>
+      <c r="V31" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <v/>
+      </c>
+      <c r="W31" s="44" t="n"/>
+      <c r="X31" s="44" t="n"/>
+      <c r="Y31" s="43">
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="Z31" s="44" t="n"/>
+      <c r="AA31" s="44" t="n"/>
+      <c r="AB31" s="45" t="n"/>
+      <c r="AC31" s="46">
         <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
-      <c r="AD30" s="47" t="n"/>
-    </row>
-    <row r="31">
-      <c r="E31" s="53" t="n"/>
-      <c r="F31" s="53" t="n"/>
-      <c r="G31" s="54" t="n"/>
-      <c r="J31" s="53" t="n"/>
-      <c r="K31" s="53" t="n"/>
-      <c r="L31" s="53" t="n"/>
-      <c r="M31" s="56" t="n"/>
-      <c r="W31" s="53" t="n"/>
-      <c r="X31" s="53" t="n"/>
-      <c r="Y31" s="53" t="n"/>
-      <c r="Z31" s="53" t="n"/>
-      <c r="AA31" s="53" t="n"/>
-      <c r="AB31" s="53" t="n"/>
-      <c r="AC31" s="53" t="n"/>
+      <c r="AD31" s="47" t="n"/>
     </row>
     <row r="32">
       <c r="E32" s="53" t="n"/>
@@ -17310,6 +17335,7 @@
       <c r="J967" s="53" t="n"/>
       <c r="K967" s="53" t="n"/>
       <c r="L967" s="53" t="n"/>
+      <c r="M967" s="56" t="n"/>
       <c r="W967" s="53" t="n"/>
       <c r="X967" s="53" t="n"/>
       <c r="Y967" s="53" t="n"/>
@@ -17557,6 +17583,21 @@
       <c r="AA983" s="53" t="n"/>
       <c r="AB983" s="53" t="n"/>
       <c r="AC983" s="53" t="n"/>
+    </row>
+    <row r="984">
+      <c r="E984" s="53" t="n"/>
+      <c r="F984" s="53" t="n"/>
+      <c r="G984" s="54" t="n"/>
+      <c r="J984" s="53" t="n"/>
+      <c r="K984" s="53" t="n"/>
+      <c r="L984" s="53" t="n"/>
+      <c r="W984" s="53" t="n"/>
+      <c r="X984" s="53" t="n"/>
+      <c r="Y984" s="53" t="n"/>
+      <c r="Z984" s="53" t="n"/>
+      <c r="AA984" s="53" t="n"/>
+      <c r="AB984" s="53" t="n"/>
+      <c r="AC984" s="53" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$39"/>

--- a/dumps/Stocks/ITC Hotels Ltd.xlsx
+++ b/dumps/Stocks/ITC Hotels Ltd.xlsx
@@ -751,7 +751,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP984"/>
+  <dimension ref="A1:AP985"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1101,11 +1101,11 @@
     </row>
     <row r="5">
       <c r="A5" s="89" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1117,21 +1117,21 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>181.75</v>
+        <v>187.22</v>
       </c>
       <c r="F5" t="n">
-        <v>1830.4</v>
+        <v>1885.5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="I5" t="n">
-        <v>11.08</v>
+        <v>11.43</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1139,8 +1139,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="88" t="n">
-        <v>46057</v>
+      <c r="A6" s="89" t="n">
+        <v>46062</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1156,26 +1156,30 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>184.67</v>
+        <v>181.75</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1859.77</v>
+        <v>1830.4</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>11.22</v>
+        <v>11.08</v>
+      </c>
+      <c r="J6" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="88" t="n">
-        <v>46017</v>
+        <v>46057</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1188,13 +1192,13 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>195.5</v>
+        <v>184.67</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>9647.57</v>
+        <v>1859.77</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
@@ -1202,10 +1206,10 @@
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>9.619999999999999</v>
+        <v>1.85</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>58.45</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="8">
@@ -1223,13 +1227,13 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>195.45</v>
+        <v>195.5</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>196.85</v>
+        <v>9647.57</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1237,15 +1241,15 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.2</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1.2</v>
+        <v>58.45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="88" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1258,13 +1262,13 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>195.82</v>
+        <v>195.45</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1972.08</v>
+        <v>196.85</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1272,15 +1276,15 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>1.95</v>
+        <v>0.2</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>11.93</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="88" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1296,10 +1300,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>195.75</v>
+        <v>195.82</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1971.38</v>
+        <v>1972.08</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1315,7 +1319,7 @@
     </row>
     <row r="11">
       <c r="A11" s="88" t="n">
-        <v>46008</v>
+        <v>46014</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1328,13 +1332,13 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>191.85</v>
+        <v>195.75</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3670.99</v>
+        <v>1971.38</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1342,10 +1346,10 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>3.67</v>
+        <v>1.95</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>22.17</v>
+        <v>11.93</v>
       </c>
     </row>
     <row r="12">
@@ -1363,13 +1367,13 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>191.9</v>
+        <v>191.85</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2125.88</v>
+        <v>3670.99</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1377,19 +1381,19 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>2.12</v>
+        <v>3.67</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>12.86</v>
+        <v>22.17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="88" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1398,13 +1402,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>191.4</v>
+        <v>191.9</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>15420.96</v>
+        <v>2125.88</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1412,19 +1416,19 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>15.28</v>
+        <v>2.12</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>93.68000000000001</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="88" t="n">
-        <v>45968</v>
+        <v>46007</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1433,13 +1437,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>209.1</v>
+        <v>191.4</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1052.93</v>
+        <v>15420.96</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1447,10 +1451,10 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>1.05</v>
+        <v>15.28</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>6.38</v>
+        <v>93.68000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -1490,7 +1494,7 @@
     </row>
     <row r="16">
       <c r="A16" s="88" t="n">
-        <v>45959</v>
+        <v>45968</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1503,13 +1507,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>220.75</v>
+        <v>209.1</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>889.24</v>
+        <v>1052.93</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1517,10 +1521,10 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.88</v>
+        <v>1.05</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>5.36</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="17">
@@ -1538,13 +1542,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>220.78</v>
+        <v>220.75</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>1334.03</v>
+        <v>889.24</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1552,19 +1556,19 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>1.33</v>
+        <v>0.88</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>8.02</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="88" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -1573,13 +1577,13 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>220.1</v>
+        <v>220.78</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>5541.56</v>
+        <v>1334.03</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1587,19 +1591,19 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>5.51</v>
+        <v>1.33</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>33.55</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="88" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -1608,13 +1612,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>223.62</v>
+        <v>220.1</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>450.41</v>
+        <v>5541.56</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1622,10 +1626,10 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.45</v>
+        <v>5.51</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>2.72</v>
+        <v>33.55</v>
       </c>
     </row>
     <row r="20">
@@ -1643,13 +1647,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>223.63</v>
+        <v>223.62</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>675.64</v>
+        <v>450.41</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1657,19 +1661,19 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.67</v>
+        <v>0.45</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>4.08</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="88" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1678,13 +1682,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>222.9</v>
+        <v>223.63</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>4489.53</v>
+        <v>675.64</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1692,19 +1696,19 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>4.45</v>
+        <v>0.67</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>27.08</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="88" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1713,13 +1717,13 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>220.28</v>
+        <v>222.9</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>4214.96</v>
+        <v>4489.53</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1727,10 +1731,10 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>4.19</v>
+        <v>4.45</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>25.45</v>
+        <v>27.08</v>
       </c>
     </row>
     <row r="23">
@@ -1748,13 +1752,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>220.19</v>
+        <v>220.28</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>221.75</v>
+        <v>4214.96</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1762,19 +1766,19 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.22</v>
+        <v>4.19</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>1.34</v>
+        <v>25.45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="88" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
@@ -1783,13 +1787,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>217.4</v>
+        <v>220.19</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>1970.51</v>
+        <v>221.75</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1797,15 +1801,15 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>1.96</v>
+        <v>0.22</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>11.95</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="88" t="n">
-        <v>45903</v>
+        <v>45947</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
@@ -1818,13 +1822,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>251.85</v>
+        <v>217.4</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>2790.03</v>
+        <v>1970.51</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1832,10 +1836,10 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>2.78</v>
+        <v>1.96</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>16.9</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="26">
@@ -1853,13 +1857,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>251.9</v>
+        <v>251.85</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>2283.21</v>
+        <v>2790.03</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1867,113 +1871,50 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>2.28</v>
+        <v>2.78</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>13.83</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B27" s="39" t="inlineStr">
+      <c r="A27" s="88" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C27" s="39" t="inlineStr">
+      <c r="C27" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D27" s="40" t="n">
-        <v>20</v>
-      </c>
-      <c r="E27" s="41" t="n">
-        <v>221.84</v>
-      </c>
-      <c r="F27" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G27" s="39" t="inlineStr">
+      <c r="D27" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>251.9</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2283.21</v>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H27" s="40" t="n"/>
-      <c r="I27" s="40" t="n"/>
-      <c r="J27" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K27" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L27" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M27" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N27" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O27" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P27" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q27" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R27" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S27" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T27" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U27" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V27" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W27" s="44" t="n"/>
-      <c r="X27" s="44" t="n"/>
-      <c r="Y27" s="43">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z27" s="44" t="n"/>
-      <c r="AA27" s="44" t="n"/>
-      <c r="AB27" s="45" t="n"/>
-      <c r="AC27" s="46">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD27" s="47" t="n"/>
+      <c r="H27" s="0" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>13.83</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B28" s="39" t="inlineStr">
         <is>
@@ -1986,13 +1927,13 @@
         </is>
       </c>
       <c r="D28" s="40" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E28" s="41" t="n">
-        <v>218.95</v>
+        <v>221.84</v>
       </c>
       <c r="F28" s="41">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G28" s="39" t="inlineStr">
@@ -2007,71 +1948,71 @@
         <v/>
       </c>
       <c r="K28" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L28" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M28" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N28" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O28" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P28" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R28" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S28" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T28" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U28" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V28" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W28" s="44" t="n"/>
       <c r="X28" s="44" t="n"/>
       <c r="Y28" s="43">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z28" s="44" t="n"/>
       <c r="AA28" s="44" t="n"/>
       <c r="AB28" s="45" t="n"/>
       <c r="AC28" s="46">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD28" s="47" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="38" t="n">
-        <v>45903</v>
+        <v>45947</v>
       </c>
       <c r="B29" s="39" t="inlineStr">
         <is>
@@ -2087,85 +2028,82 @@
         <v>9</v>
       </c>
       <c r="E29" s="41" t="n">
-        <v>253.69</v>
-      </c>
-      <c r="F29" s="41" t="n">
-        <v>2283.21</v>
+        <v>218.95</v>
+      </c>
+      <c r="F29" s="41">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G29" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H29" s="40" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="I29" s="40" t="n">
-        <v>13.83</v>
-      </c>
+      <c r="H29" s="40" t="n"/>
+      <c r="I29" s="40" t="n"/>
       <c r="J29" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K29" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L29" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M29" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N29" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O29" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P29" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R29" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S29" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T29" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U29" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V29" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W29" s="44" t="n"/>
       <c r="X29" s="44" t="n"/>
       <c r="Y29" s="43">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z29" s="44" t="n"/>
       <c r="AA29" s="44" t="n"/>
       <c r="AB29" s="45" t="n"/>
       <c r="AC29" s="46">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD29" s="47" t="n"/>
@@ -2185,13 +2123,13 @@
         </is>
       </c>
       <c r="D30" s="40" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E30" s="41" t="n">
-        <v>253.64</v>
+        <v>253.69</v>
       </c>
       <c r="F30" s="41" t="n">
-        <v>2790.03</v>
+        <v>2283.21</v>
       </c>
       <c r="G30" s="39" t="inlineStr">
         <is>
@@ -2199,190 +2137,275 @@
         </is>
       </c>
       <c r="H30" s="40" t="n">
-        <v>2.78</v>
+        <v>2.28</v>
       </c>
       <c r="I30" s="40" t="n">
-        <v>16.9</v>
+        <v>13.83</v>
       </c>
       <c r="J30" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K30" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L30" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M30" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N30" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O30" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P30" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R30" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S30" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T30" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U30" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V30" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W30" s="44" t="n"/>
       <c r="X30" s="44" t="n"/>
       <c r="Y30" s="43">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z30" s="44" t="n"/>
       <c r="AA30" s="44" t="n"/>
       <c r="AB30" s="45" t="n"/>
       <c r="AC30" s="46">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD30" s="47" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="48" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B31" s="52" t="inlineStr">
+      <c r="A31" s="38" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B31" s="39" t="inlineStr">
         <is>
-          <t>DMRGR</t>
+          <t>BSE</t>
         </is>
       </c>
-      <c r="C31" s="52" t="inlineStr">
+      <c r="C31" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D31" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="51" t="n">
-        <v>164</v>
-      </c>
-      <c r="F31" s="51" t="n">
-        <v>167</v>
-      </c>
-      <c r="G31" s="52" t="n"/>
-      <c r="H31" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="50" t="n">
-        <v>0</v>
+      <c r="D31" s="40" t="n">
+        <v>11</v>
+      </c>
+      <c r="E31" s="41" t="n">
+        <v>253.64</v>
+      </c>
+      <c r="F31" s="41" t="n">
+        <v>2790.03</v>
+      </c>
+      <c r="G31" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H31" s="40" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I31" s="40" t="n">
+        <v>16.9</v>
       </c>
       <c r="J31" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K31" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L31" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M31" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N31" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O31" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P31" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R31" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S31" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T31" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U31" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V31" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W31" s="44" t="n"/>
       <c r="X31" s="44" t="n"/>
       <c r="Y31" s="43">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z31" s="44" t="n"/>
       <c r="AA31" s="44" t="n"/>
       <c r="AB31" s="45" t="n"/>
       <c r="AC31" s="46">
+        <f>if(B8="DIV", F8,"")</f>
+        <v/>
+      </c>
+      <c r="AD31" s="47" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="48" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B32" s="52" t="inlineStr">
+        <is>
+          <t>DMRGR</t>
+        </is>
+      </c>
+      <c r="C32" s="52" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D32" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="51" t="n">
+        <v>164</v>
+      </c>
+      <c r="F32" s="51" t="n">
+        <v>167</v>
+      </c>
+      <c r="G32" s="52" t="n"/>
+      <c r="H32" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K32" s="43">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="L32" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <v/>
+      </c>
+      <c r="M32" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <v/>
+      </c>
+      <c r="N32" s="45">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <v/>
+      </c>
+      <c r="O32" s="43">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="P32" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <v/>
+      </c>
+      <c r="Q32" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <v/>
+      </c>
+      <c r="R32" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <v/>
+      </c>
+      <c r="S32" s="43">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="T32" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <v/>
+      </c>
+      <c r="U32" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <v/>
+      </c>
+      <c r="V32" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <v/>
+      </c>
+      <c r="W32" s="44" t="n"/>
+      <c r="X32" s="44" t="n"/>
+      <c r="Y32" s="43">
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="Z32" s="44" t="n"/>
+      <c r="AA32" s="44" t="n"/>
+      <c r="AB32" s="45" t="n"/>
+      <c r="AC32" s="46">
         <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
-      <c r="AD31" s="47" t="n"/>
-    </row>
-    <row r="32">
-      <c r="E32" s="53" t="n"/>
-      <c r="F32" s="53" t="n"/>
-      <c r="G32" s="54" t="n"/>
-      <c r="J32" s="53" t="n"/>
-      <c r="K32" s="53" t="n"/>
-      <c r="L32" s="53" t="n"/>
-      <c r="M32" s="56" t="n"/>
-      <c r="W32" s="53" t="n"/>
-      <c r="X32" s="53" t="n"/>
-      <c r="Y32" s="53" t="n"/>
-      <c r="Z32" s="53" t="n"/>
-      <c r="AA32" s="53" t="n"/>
-      <c r="AB32" s="53" t="n"/>
-      <c r="AC32" s="53" t="n"/>
+      <c r="AD32" s="47" t="n"/>
     </row>
     <row r="33">
       <c r="E33" s="53" t="n"/>
@@ -17351,6 +17374,7 @@
       <c r="J968" s="53" t="n"/>
       <c r="K968" s="53" t="n"/>
       <c r="L968" s="53" t="n"/>
+      <c r="M968" s="56" t="n"/>
       <c r="W968" s="53" t="n"/>
       <c r="X968" s="53" t="n"/>
       <c r="Y968" s="53" t="n"/>
@@ -17598,6 +17622,21 @@
       <c r="AA984" s="53" t="n"/>
       <c r="AB984" s="53" t="n"/>
       <c r="AC984" s="53" t="n"/>
+    </row>
+    <row r="985">
+      <c r="E985" s="53" t="n"/>
+      <c r="F985" s="53" t="n"/>
+      <c r="G985" s="54" t="n"/>
+      <c r="J985" s="53" t="n"/>
+      <c r="K985" s="53" t="n"/>
+      <c r="L985" s="53" t="n"/>
+      <c r="W985" s="53" t="n"/>
+      <c r="X985" s="53" t="n"/>
+      <c r="Y985" s="53" t="n"/>
+      <c r="Z985" s="53" t="n"/>
+      <c r="AA985" s="53" t="n"/>
+      <c r="AB985" s="53" t="n"/>
+      <c r="AC985" s="53" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$39"/>

--- a/dumps/Stocks/ITC Hotels Ltd.xlsx
+++ b/dumps/Stocks/ITC Hotels Ltd.xlsx
@@ -751,7 +751,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP985"/>
+  <dimension ref="A1:AP987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1101,11 +1101,11 @@
     </row>
     <row r="5">
       <c r="A5" s="89" t="n">
-        <v>46063</v>
+        <v>45959</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1117,21 +1117,18 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>187.22</v>
+        <v>220.768</v>
       </c>
       <c r="F5" t="n">
-        <v>1885.5</v>
+        <v>2218.68</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252607497001</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>1.87</v>
-      </c>
       <c r="I5" t="n">
-        <v>11.43</v>
+        <v>11</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1140,7 +1137,7 @@
     </row>
     <row r="6">
       <c r="A6" s="89" t="n">
-        <v>46062</v>
+        <v>45968</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1156,21 +1153,18 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>181.75</v>
+        <v>209.1</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1830.4</v>
+        <v>2101.5</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252607899666</t>
         </is>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>1.82</v>
-      </c>
       <c r="I6" s="0" t="n">
-        <v>11.08</v>
+        <v>10.5</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1178,12 +1172,12 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="88" t="n">
-        <v>46057</v>
+      <c r="A7" s="89" t="n">
+        <v>46063</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
@@ -1195,26 +1189,30 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>184.67</v>
+        <v>187.22</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1859.77</v>
+        <v>1885.5</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>11.22</v>
+        <v>11.43</v>
+      </c>
+      <c r="J7" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="88" t="n">
-        <v>46017</v>
+      <c r="A8" s="89" t="n">
+        <v>46062</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1227,29 +1225,33 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>195.5</v>
+        <v>181.75</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>9647.57</v>
+        <v>1830.4</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>9.619999999999999</v>
+        <v>1.82</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>58.45</v>
+        <v>11.08</v>
+      </c>
+      <c r="J8" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="88" t="n">
-        <v>46017</v>
+        <v>46057</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1262,13 +1264,13 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>195.45</v>
+        <v>184.67</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>196.85</v>
+        <v>1859.77</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1276,15 +1278,15 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.2</v>
+        <v>1.85</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1.2</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="88" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1297,13 +1299,13 @@
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>195.82</v>
+        <v>195.5</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1972.08</v>
+        <v>9647.57</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1311,15 +1313,15 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1.95</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>11.93</v>
+        <v>58.45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="88" t="n">
-        <v>46014</v>
+        <v>46017</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1332,13 +1334,13 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>195.75</v>
+        <v>195.45</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1971.38</v>
+        <v>196.85</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1346,15 +1348,15 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>1.95</v>
+        <v>0.2</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>11.93</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="88" t="n">
-        <v>46008</v>
+        <v>46015</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>191.85</v>
+        <v>195.82</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3670.99</v>
+        <v>1972.08</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1381,15 +1383,15 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>3.67</v>
+        <v>1.95</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>22.17</v>
+        <v>11.93</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="88" t="n">
-        <v>46008</v>
+        <v>46014</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1402,13 +1404,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>191.9</v>
+        <v>195.75</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>2125.88</v>
+        <v>1971.38</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1416,19 +1418,19 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>12.86</v>
+        <v>11.93</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="88" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1437,13 +1439,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>191.4</v>
+        <v>191.85</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>15420.96</v>
+        <v>3670.99</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1451,15 +1453,15 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>15.28</v>
+        <v>3.67</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>93.68000000000001</v>
+        <v>22.17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="88" t="n">
-        <v>45968</v>
+        <v>46008</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1472,13 +1474,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>209.1</v>
+        <v>191.9</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1052.93</v>
+        <v>2125.88</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1486,19 +1488,19 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>1.05</v>
+        <v>2.12</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>6.38</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="88" t="n">
-        <v>45968</v>
+        <v>46007</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -1507,13 +1509,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>209.1</v>
+        <v>191.4</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1052.93</v>
+        <v>15420.96</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1521,15 +1523,15 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>1.05</v>
+        <v>15.28</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>6.38</v>
+        <v>93.68000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="88" t="n">
-        <v>45959</v>
+        <v>45968</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1542,13 +1544,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>220.75</v>
+        <v>209.1</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>889.24</v>
+        <v>1052.93</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1556,15 +1558,15 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.88</v>
+        <v>1.05</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>5.36</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="88" t="n">
-        <v>45959</v>
+        <v>45968</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1577,13 +1579,13 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>220.78</v>
+        <v>209.1</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1334.03</v>
+        <v>1052.93</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1591,19 +1593,19 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>1.33</v>
+        <v>1.05</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>8.02</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="88" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -1612,13 +1614,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>220.1</v>
+        <v>220.75</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>5541.56</v>
+        <v>889.24</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1626,15 +1628,15 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>5.51</v>
+        <v>0.88</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>33.55</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="88" t="n">
-        <v>45954</v>
+        <v>45959</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1647,13 +1649,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>223.62</v>
+        <v>220.78</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>450.41</v>
+        <v>1334.03</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1661,19 +1663,19 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.45</v>
+        <v>1.33</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>2.72</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="88" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1682,13 +1684,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>223.63</v>
+        <v>220.1</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>675.64</v>
+        <v>5541.56</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1696,19 +1698,19 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.67</v>
+        <v>5.51</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>4.08</v>
+        <v>33.55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="88" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1717,13 +1719,13 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>222.9</v>
+        <v>223.62</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>4489.53</v>
+        <v>450.41</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1731,15 +1733,15 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>4.45</v>
+        <v>0.45</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>27.08</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="88" t="n">
-        <v>45950</v>
+        <v>45954</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
@@ -1752,13 +1754,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>220.28</v>
+        <v>223.63</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>4214.96</v>
+        <v>675.64</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1766,19 +1768,19 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>4.19</v>
+        <v>0.67</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>25.45</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="88" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
@@ -1787,13 +1789,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>220.19</v>
+        <v>222.9</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>221.75</v>
+        <v>4489.53</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1801,19 +1803,19 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.22</v>
+        <v>4.45</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>1.34</v>
+        <v>27.08</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="88" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
@@ -1822,13 +1824,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>217.4</v>
+        <v>220.28</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>1970.51</v>
+        <v>4214.96</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1836,19 +1838,19 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>1.96</v>
+        <v>4.19</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>11.95</v>
+        <v>25.45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="88" t="n">
-        <v>45903</v>
+        <v>45950</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
@@ -1857,13 +1859,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>251.85</v>
+        <v>220.19</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>2790.03</v>
+        <v>221.75</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1871,15 +1873,15 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>2.78</v>
+        <v>0.22</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>16.9</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="88" t="n">
-        <v>45903</v>
+        <v>45947</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
@@ -1895,10 +1897,10 @@
         <v>9</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>251.9</v>
+        <v>217.4</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>2283.21</v>
+        <v>1970.51</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1906,211 +1908,85 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>2.28</v>
+        <v>1.96</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>13.83</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B28" s="39" t="inlineStr">
+      <c r="A28" s="88" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C28" s="39" t="inlineStr">
+      <c r="C28" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D28" s="40" t="n">
-        <v>20</v>
-      </c>
-      <c r="E28" s="41" t="n">
-        <v>221.84</v>
-      </c>
-      <c r="F28" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G28" s="39" t="inlineStr">
+      <c r="D28" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>251.85</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>2790.03</v>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H28" s="40" t="n"/>
-      <c r="I28" s="40" t="n"/>
-      <c r="J28" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K28" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L28" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M28" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N28" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O28" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P28" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q28" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R28" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S28" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T28" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U28" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V28" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W28" s="44" t="n"/>
-      <c r="X28" s="44" t="n"/>
-      <c r="Y28" s="43">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z28" s="44" t="n"/>
-      <c r="AA28" s="44" t="n"/>
-      <c r="AB28" s="45" t="n"/>
-      <c r="AC28" s="46">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD28" s="47" t="n"/>
+      <c r="H28" s="0" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>16.9</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="38" t="n">
-        <v>45947</v>
-      </c>
-      <c r="B29" s="39" t="inlineStr">
+      <c r="A29" s="88" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C29" s="39" t="inlineStr">
+      <c r="C29" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D29" s="40" t="n">
+      <c r="D29" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E29" s="41" t="n">
-        <v>218.95</v>
-      </c>
-      <c r="F29" s="41">
-        <f>D6*E6</f>
-        <v/>
-      </c>
-      <c r="G29" s="39" t="inlineStr">
+      <c r="E29" s="0" t="n">
+        <v>251.9</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>2283.21</v>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H29" s="40" t="n"/>
-      <c r="I29" s="40" t="n"/>
-      <c r="J29" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K29" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L29" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M29" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N29" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O29" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P29" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q29" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R29" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S29" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T29" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U29" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V29" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W29" s="44" t="n"/>
-      <c r="X29" s="44" t="n"/>
-      <c r="Y29" s="43">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z29" s="44" t="n"/>
-      <c r="AA29" s="44" t="n"/>
-      <c r="AB29" s="45" t="n"/>
-      <c r="AC29" s="46">
-        <f>if(B6="DIV", F6,"")</f>
-        <v/>
-      </c>
-      <c r="AD29" s="47" t="n"/>
+      <c r="H29" s="0" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>13.83</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="38" t="n">
-        <v>45903</v>
+        <v>45950</v>
       </c>
       <c r="B30" s="39" t="inlineStr">
         <is>
@@ -2123,95 +1999,92 @@
         </is>
       </c>
       <c r="D30" s="40" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E30" s="41" t="n">
-        <v>253.69</v>
-      </c>
-      <c r="F30" s="41" t="n">
-        <v>2283.21</v>
+        <v>221.84</v>
+      </c>
+      <c r="F30" s="41">
+        <f>D5*E5</f>
+        <v/>
       </c>
       <c r="G30" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H30" s="40" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="I30" s="40" t="n">
-        <v>13.83</v>
-      </c>
+      <c r="H30" s="40" t="n"/>
+      <c r="I30" s="40" t="n"/>
       <c r="J30" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K30" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L30" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M30" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N30" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O30" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P30" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R30" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S30" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T30" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U30" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V30" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W30" s="44" t="n"/>
       <c r="X30" s="44" t="n"/>
       <c r="Y30" s="43">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z30" s="44" t="n"/>
       <c r="AA30" s="44" t="n"/>
       <c r="AB30" s="45" t="n"/>
       <c r="AC30" s="46">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD30" s="47" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="38" t="n">
-        <v>45903</v>
+        <v>45947</v>
       </c>
       <c r="B31" s="39" t="inlineStr">
         <is>
@@ -2224,220 +2097,387 @@
         </is>
       </c>
       <c r="D31" s="40" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E31" s="41" t="n">
-        <v>253.64</v>
-      </c>
-      <c r="F31" s="41" t="n">
-        <v>2790.03</v>
+        <v>218.95</v>
+      </c>
+      <c r="F31" s="41">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G31" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H31" s="40" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I31" s="40" t="n">
-        <v>16.9</v>
-      </c>
+      <c r="H31" s="40" t="n"/>
+      <c r="I31" s="40" t="n"/>
       <c r="J31" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K31" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L31" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M31" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N31" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O31" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P31" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R31" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S31" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T31" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U31" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V31" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W31" s="44" t="n"/>
       <c r="X31" s="44" t="n"/>
       <c r="Y31" s="43">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z31" s="44" t="n"/>
       <c r="AA31" s="44" t="n"/>
       <c r="AB31" s="45" t="n"/>
       <c r="AC31" s="46">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD31" s="47" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="48" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B32" s="52" t="inlineStr">
+      <c r="A32" s="38" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B32" s="39" t="inlineStr">
         <is>
-          <t>DMRGR</t>
+          <t>BSE</t>
         </is>
       </c>
-      <c r="C32" s="52" t="inlineStr">
+      <c r="C32" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D32" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="51" t="n">
-        <v>164</v>
-      </c>
-      <c r="F32" s="51" t="n">
-        <v>167</v>
-      </c>
-      <c r="G32" s="52" t="n"/>
-      <c r="H32" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="50" t="n">
-        <v>0</v>
+      <c r="D32" s="40" t="n">
+        <v>9</v>
+      </c>
+      <c r="E32" s="41" t="n">
+        <v>253.69</v>
+      </c>
+      <c r="F32" s="41" t="n">
+        <v>2283.21</v>
+      </c>
+      <c r="G32" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H32" s="40" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I32" s="40" t="n">
+        <v>13.83</v>
       </c>
       <c r="J32" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K32" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L32" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M32" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N32" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O32" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P32" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q32" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R32" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S32" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T32" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U32" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V32" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W32" s="44" t="n"/>
       <c r="X32" s="44" t="n"/>
       <c r="Y32" s="43">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z32" s="44" t="n"/>
       <c r="AA32" s="44" t="n"/>
       <c r="AB32" s="45" t="n"/>
       <c r="AC32" s="46">
+        <f>if(B7="DIV", F7,"")</f>
+        <v/>
+      </c>
+      <c r="AD32" s="47" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="38" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B33" s="39" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C33" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D33" s="40" t="n">
+        <v>11</v>
+      </c>
+      <c r="E33" s="41" t="n">
+        <v>253.64</v>
+      </c>
+      <c r="F33" s="41" t="n">
+        <v>2790.03</v>
+      </c>
+      <c r="G33" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H33" s="40" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I33" s="40" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J33" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K33" s="43">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="L33" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="M33" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <v/>
+      </c>
+      <c r="N33" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <v/>
+      </c>
+      <c r="O33" s="43">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="P33" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="Q33" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <v/>
+      </c>
+      <c r="R33" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <v/>
+      </c>
+      <c r="S33" s="43">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="T33" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="U33" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <v/>
+      </c>
+      <c r="V33" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <v/>
+      </c>
+      <c r="W33" s="44" t="n"/>
+      <c r="X33" s="44" t="n"/>
+      <c r="Y33" s="43">
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="Z33" s="44" t="n"/>
+      <c r="AA33" s="44" t="n"/>
+      <c r="AB33" s="45" t="n"/>
+      <c r="AC33" s="46">
+        <f>if(B8="DIV", F8,"")</f>
+        <v/>
+      </c>
+      <c r="AD33" s="47" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="48" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B34" s="52" t="inlineStr">
+        <is>
+          <t>DMRGR</t>
+        </is>
+      </c>
+      <c r="C34" s="52" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D34" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="51" t="n">
+        <v>164</v>
+      </c>
+      <c r="F34" s="51" t="n">
+        <v>167</v>
+      </c>
+      <c r="G34" s="52" t="n"/>
+      <c r="H34" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K34" s="43">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="L34" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <v/>
+      </c>
+      <c r="M34" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <v/>
+      </c>
+      <c r="N34" s="45">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <v/>
+      </c>
+      <c r="O34" s="43">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="P34" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <v/>
+      </c>
+      <c r="Q34" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <v/>
+      </c>
+      <c r="R34" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <v/>
+      </c>
+      <c r="S34" s="43">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="T34" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <v/>
+      </c>
+      <c r="U34" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <v/>
+      </c>
+      <c r="V34" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <v/>
+      </c>
+      <c r="W34" s="44" t="n"/>
+      <c r="X34" s="44" t="n"/>
+      <c r="Y34" s="43">
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="Z34" s="44" t="n"/>
+      <c r="AA34" s="44" t="n"/>
+      <c r="AB34" s="45" t="n"/>
+      <c r="AC34" s="46">
         <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
-      <c r="AD32" s="47" t="n"/>
-    </row>
-    <row r="33">
-      <c r="E33" s="53" t="n"/>
-      <c r="F33" s="53" t="n"/>
-      <c r="G33" s="54" t="n"/>
-      <c r="J33" s="53" t="n"/>
-      <c r="K33" s="53" t="n"/>
-      <c r="L33" s="53" t="n"/>
-      <c r="M33" s="56" t="n"/>
-      <c r="W33" s="53" t="n"/>
-      <c r="X33" s="53" t="n"/>
-      <c r="Y33" s="53" t="n"/>
-      <c r="Z33" s="53" t="n"/>
-      <c r="AA33" s="53" t="n"/>
-      <c r="AB33" s="53" t="n"/>
-      <c r="AC33" s="53" t="n"/>
-    </row>
-    <row r="34">
-      <c r="E34" s="53" t="n"/>
-      <c r="F34" s="53" t="n"/>
-      <c r="G34" s="54" t="n"/>
-      <c r="J34" s="53" t="n"/>
-      <c r="K34" s="53" t="n"/>
-      <c r="L34" s="53" t="n"/>
-      <c r="M34" s="56" t="n"/>
-      <c r="W34" s="53" t="n"/>
-      <c r="X34" s="53" t="n"/>
-      <c r="Y34" s="53" t="n"/>
-      <c r="Z34" s="53" t="n"/>
-      <c r="AA34" s="53" t="n"/>
-      <c r="AB34" s="53" t="n"/>
-      <c r="AC34" s="53" t="n"/>
+      <c r="AD34" s="47" t="n"/>
     </row>
     <row r="35">
       <c r="E35" s="53" t="n"/>
@@ -17390,6 +17430,7 @@
       <c r="J969" s="53" t="n"/>
       <c r="K969" s="53" t="n"/>
       <c r="L969" s="53" t="n"/>
+      <c r="M969" s="56" t="n"/>
       <c r="W969" s="53" t="n"/>
       <c r="X969" s="53" t="n"/>
       <c r="Y969" s="53" t="n"/>
@@ -17405,6 +17446,7 @@
       <c r="J970" s="53" t="n"/>
       <c r="K970" s="53" t="n"/>
       <c r="L970" s="53" t="n"/>
+      <c r="M970" s="56" t="n"/>
       <c r="W970" s="53" t="n"/>
       <c r="X970" s="53" t="n"/>
       <c r="Y970" s="53" t="n"/>
@@ -17637,6 +17679,36 @@
       <c r="AA985" s="53" t="n"/>
       <c r="AB985" s="53" t="n"/>
       <c r="AC985" s="53" t="n"/>
+    </row>
+    <row r="986">
+      <c r="E986" s="53" t="n"/>
+      <c r="F986" s="53" t="n"/>
+      <c r="G986" s="54" t="n"/>
+      <c r="J986" s="53" t="n"/>
+      <c r="K986" s="53" t="n"/>
+      <c r="L986" s="53" t="n"/>
+      <c r="W986" s="53" t="n"/>
+      <c r="X986" s="53" t="n"/>
+      <c r="Y986" s="53" t="n"/>
+      <c r="Z986" s="53" t="n"/>
+      <c r="AA986" s="53" t="n"/>
+      <c r="AB986" s="53" t="n"/>
+      <c r="AC986" s="53" t="n"/>
+    </row>
+    <row r="987">
+      <c r="E987" s="53" t="n"/>
+      <c r="F987" s="53" t="n"/>
+      <c r="G987" s="54" t="n"/>
+      <c r="J987" s="53" t="n"/>
+      <c r="K987" s="53" t="n"/>
+      <c r="L987" s="53" t="n"/>
+      <c r="W987" s="53" t="n"/>
+      <c r="X987" s="53" t="n"/>
+      <c r="Y987" s="53" t="n"/>
+      <c r="Z987" s="53" t="n"/>
+      <c r="AA987" s="53" t="n"/>
+      <c r="AB987" s="53" t="n"/>
+      <c r="AC987" s="53" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$39"/>

--- a/dumps/Stocks/ITC Hotels Ltd.xlsx
+++ b/dumps/Stocks/ITC Hotels Ltd.xlsx
@@ -751,7 +751,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP987"/>
+  <dimension ref="A1:AP990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="5">
       <c r="A5" s="89" t="n">
-        <v>45959</v>
+        <v>46059</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1117,18 +1117,18 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>220.768</v>
+        <v>179.7</v>
       </c>
       <c r="F5" t="n">
-        <v>2218.68</v>
+        <v>1806</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="6">
       <c r="A6" s="89" t="n">
-        <v>45968</v>
+        <v>46017</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1150,21 +1150,21 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>209.1</v>
+        <v>195.499</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2101.5</v>
+        <v>9823.950000000001</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252607899666</t>
+          <t>CN#252609810990</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>10.5</v>
+        <v>49</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1173,11 +1173,11 @@
     </row>
     <row r="7">
       <c r="A7" s="89" t="n">
-        <v>46063</v>
+        <v>46008</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
@@ -1186,24 +1186,21 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>187.22</v>
+        <v>191.8683</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1885.5</v>
+        <v>5784.85</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252609476500</t>
         </is>
       </c>
-      <c r="H7" s="0" t="n">
-        <v>1.87</v>
-      </c>
       <c r="I7" s="0" t="n">
-        <v>11.43</v>
+        <v>28.8</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1212,7 +1209,7 @@
     </row>
     <row r="8">
       <c r="A8" s="89" t="n">
-        <v>46062</v>
+        <v>45959</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1228,21 +1225,18 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>181.75</v>
+        <v>220.768</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1830.4</v>
+        <v>2218.68</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252607497001</t>
         </is>
       </c>
-      <c r="H8" s="0" t="n">
-        <v>1.82</v>
-      </c>
       <c r="I8" s="0" t="n">
-        <v>11.08</v>
+        <v>11</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1250,8 +1244,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="88" t="n">
-        <v>46057</v>
+      <c r="A9" s="89" t="n">
+        <v>45968</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1267,30 +1261,31 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>184.67</v>
+        <v>209.1</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1859.77</v>
+        <v>2101.5</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252607899666</t>
         </is>
       </c>
-      <c r="H9" s="0" t="n">
-        <v>1.85</v>
-      </c>
       <c r="I9" s="0" t="n">
-        <v>11.22</v>
+        <v>10.5</v>
+      </c>
+      <c r="J9" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="88" t="n">
-        <v>46017</v>
+      <c r="A10" s="89" t="n">
+        <v>46063</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1299,29 +1294,33 @@
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>195.5</v>
+        <v>187.22</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>9647.57</v>
+        <v>1885.5</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>9.619999999999999</v>
+        <v>1.87</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>58.45</v>
+        <v>11.43</v>
+      </c>
+      <c r="J10" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="88" t="n">
-        <v>46017</v>
+      <c r="A11" s="89" t="n">
+        <v>46062</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1334,29 +1333,33 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>195.45</v>
+        <v>181.75</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>196.85</v>
+        <v>1830.4</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.2</v>
+        <v>1.82</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1.2</v>
+        <v>11.08</v>
+      </c>
+      <c r="J11" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="88" t="n">
-        <v>46015</v>
+        <v>46057</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1372,10 +1375,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>195.82</v>
+        <v>184.67</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1972.08</v>
+        <v>1859.77</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1383,15 +1386,15 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>11.93</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="88" t="n">
-        <v>46014</v>
+        <v>46017</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1404,13 +1407,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>195.75</v>
+        <v>195.5</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1971.38</v>
+        <v>9647.57</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1418,15 +1421,15 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>1.95</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>11.93</v>
+        <v>58.45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="88" t="n">
-        <v>46008</v>
+        <v>46017</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1439,13 +1442,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>191.85</v>
+        <v>195.45</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3670.99</v>
+        <v>196.85</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1453,15 +1456,15 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>3.67</v>
+        <v>0.2</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>22.17</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="88" t="n">
-        <v>46008</v>
+        <v>46015</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1474,13 +1477,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>191.9</v>
+        <v>195.82</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2125.88</v>
+        <v>1972.08</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1488,19 +1491,19 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>12.86</v>
+        <v>11.93</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="88" t="n">
-        <v>46007</v>
+        <v>46014</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -1509,13 +1512,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>191.4</v>
+        <v>195.75</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>15420.96</v>
+        <v>1971.38</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1523,15 +1526,15 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>15.28</v>
+        <v>1.95</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>93.68000000000001</v>
+        <v>11.93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="88" t="n">
-        <v>45968</v>
+        <v>46008</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1544,13 +1547,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>209.1</v>
+        <v>191.85</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>1052.93</v>
+        <v>3670.99</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1558,15 +1561,15 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>1.05</v>
+        <v>3.67</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>6.38</v>
+        <v>22.17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="88" t="n">
-        <v>45968</v>
+        <v>46008</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1579,13 +1582,13 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>209.1</v>
+        <v>191.9</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1052.93</v>
+        <v>2125.88</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1593,19 +1596,19 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>1.05</v>
+        <v>2.12</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>6.38</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="88" t="n">
-        <v>45959</v>
+        <v>46007</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -1614,13 +1617,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>220.75</v>
+        <v>191.4</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>889.24</v>
+        <v>15420.96</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1628,15 +1631,15 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.88</v>
+        <v>15.28</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>5.36</v>
+        <v>93.68000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="88" t="n">
-        <v>45959</v>
+        <v>45968</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1649,13 +1652,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>220.78</v>
+        <v>209.1</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1334.03</v>
+        <v>1052.93</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1663,19 +1666,19 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>1.33</v>
+        <v>1.05</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>8.02</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="88" t="n">
-        <v>45957</v>
+        <v>45968</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1684,13 +1687,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>220.1</v>
+        <v>209.1</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>5541.56</v>
+        <v>1052.93</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1698,15 +1701,15 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>5.51</v>
+        <v>1.05</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>33.55</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="88" t="n">
-        <v>45954</v>
+        <v>45959</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
@@ -1719,13 +1722,13 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>223.62</v>
+        <v>220.75</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>450.41</v>
+        <v>889.24</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1733,15 +1736,15 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.45</v>
+        <v>0.88</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>2.72</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="88" t="n">
-        <v>45954</v>
+        <v>45959</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
@@ -1754,13 +1757,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>223.63</v>
+        <v>220.78</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>675.64</v>
+        <v>1334.03</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1768,15 +1771,15 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>4.08</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="88" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
@@ -1789,13 +1792,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>222.9</v>
+        <v>220.1</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>4489.53</v>
+        <v>5541.56</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1803,15 +1806,15 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>4.45</v>
+        <v>5.51</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>27.08</v>
+        <v>33.55</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="88" t="n">
-        <v>45950</v>
+        <v>45954</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
@@ -1824,13 +1827,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>220.28</v>
+        <v>223.62</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>4214.96</v>
+        <v>450.41</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1838,15 +1841,15 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>4.19</v>
+        <v>0.45</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>25.45</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="88" t="n">
-        <v>45950</v>
+        <v>45954</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
@@ -1859,13 +1862,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>220.19</v>
+        <v>223.63</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>221.75</v>
+        <v>675.64</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1873,15 +1876,15 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.22</v>
+        <v>0.67</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>1.34</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="88" t="n">
-        <v>45947</v>
+        <v>45953</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
@@ -1894,13 +1897,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>217.4</v>
+        <v>222.9</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>1970.51</v>
+        <v>4489.53</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1908,19 +1911,19 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>1.96</v>
+        <v>4.45</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>11.95</v>
+        <v>27.08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="88" t="n">
-        <v>45903</v>
+        <v>45950</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C28" s="0" t="inlineStr">
@@ -1929,13 +1932,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>251.85</v>
+        <v>220.28</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>2790.03</v>
+        <v>4214.96</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1943,19 +1946,19 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>2.78</v>
+        <v>4.19</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>16.9</v>
+        <v>25.45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="88" t="n">
-        <v>45903</v>
+        <v>45950</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C29" s="0" t="inlineStr">
@@ -1964,13 +1967,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>251.9</v>
+        <v>220.19</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>2283.21</v>
+        <v>221.75</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -1978,312 +1981,120 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>2.28</v>
+        <v>0.22</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>13.83</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B30" s="39" t="inlineStr">
+      <c r="A30" s="88" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C30" s="39" t="inlineStr">
+      <c r="C30" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D30" s="40" t="n">
-        <v>20</v>
-      </c>
-      <c r="E30" s="41" t="n">
-        <v>221.84</v>
-      </c>
-      <c r="F30" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G30" s="39" t="inlineStr">
+      <c r="D30" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>217.4</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1970.51</v>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H30" s="40" t="n"/>
-      <c r="I30" s="40" t="n"/>
-      <c r="J30" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K30" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L30" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M30" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N30" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O30" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P30" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q30" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R30" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S30" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T30" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U30" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V30" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W30" s="44" t="n"/>
-      <c r="X30" s="44" t="n"/>
-      <c r="Y30" s="43">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z30" s="44" t="n"/>
-      <c r="AA30" s="44" t="n"/>
-      <c r="AB30" s="45" t="n"/>
-      <c r="AC30" s="46">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD30" s="47" t="n"/>
+      <c r="H30" s="0" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>11.95</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="38" t="n">
-        <v>45947</v>
-      </c>
-      <c r="B31" s="39" t="inlineStr">
+      <c r="A31" s="88" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C31" s="39" t="inlineStr">
+      <c r="C31" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D31" s="40" t="n">
-        <v>9</v>
-      </c>
-      <c r="E31" s="41" t="n">
-        <v>218.95</v>
-      </c>
-      <c r="F31" s="41">
-        <f>D6*E6</f>
-        <v/>
-      </c>
-      <c r="G31" s="39" t="inlineStr">
+      <c r="D31" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>251.85</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>2790.03</v>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H31" s="40" t="n"/>
-      <c r="I31" s="40" t="n"/>
-      <c r="J31" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K31" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L31" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M31" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N31" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O31" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P31" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q31" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R31" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S31" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T31" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U31" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V31" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W31" s="44" t="n"/>
-      <c r="X31" s="44" t="n"/>
-      <c r="Y31" s="43">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z31" s="44" t="n"/>
-      <c r="AA31" s="44" t="n"/>
-      <c r="AB31" s="45" t="n"/>
-      <c r="AC31" s="46">
-        <f>if(B6="DIV", F6,"")</f>
-        <v/>
-      </c>
-      <c r="AD31" s="47" t="n"/>
+      <c r="H31" s="0" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>16.9</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="38" t="n">
+      <c r="A32" s="88" t="n">
         <v>45903</v>
       </c>
-      <c r="B32" s="39" t="inlineStr">
+      <c r="B32" s="0" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C32" s="39" t="inlineStr">
+      <c r="C32" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D32" s="40" t="n">
+      <c r="D32" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E32" s="41" t="n">
-        <v>253.69</v>
-      </c>
-      <c r="F32" s="41" t="n">
+      <c r="E32" s="0" t="n">
+        <v>251.9</v>
+      </c>
+      <c r="F32" s="0" t="n">
         <v>2283.21</v>
       </c>
-      <c r="G32" s="39" t="inlineStr">
+      <c r="G32" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H32" s="40" t="n">
+      <c r="H32" s="0" t="n">
         <v>2.28</v>
       </c>
-      <c r="I32" s="40" t="n">
+      <c r="I32" s="0" t="n">
         <v>13.83</v>
       </c>
-      <c r="J32" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K32" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="L32" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="M32" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
-        <v/>
-      </c>
-      <c r="N32" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
-        <v/>
-      </c>
-      <c r="O32" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="P32" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="Q32" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
-        <v/>
-      </c>
-      <c r="R32" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="S32" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="T32" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="U32" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
-        <v/>
-      </c>
-      <c r="V32" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="W32" s="44" t="n"/>
-      <c r="X32" s="44" t="n"/>
-      <c r="Y32" s="43">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="Z32" s="44" t="n"/>
-      <c r="AA32" s="44" t="n"/>
-      <c r="AB32" s="45" t="n"/>
-      <c r="AC32" s="46">
-        <f>if(B7="DIV", F7,"")</f>
-        <v/>
-      </c>
-      <c r="AD32" s="47" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="38" t="n">
-        <v>45903</v>
+        <v>45950</v>
       </c>
       <c r="B33" s="39" t="inlineStr">
         <is>
@@ -2296,236 +2107,485 @@
         </is>
       </c>
       <c r="D33" s="40" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E33" s="41" t="n">
-        <v>253.64</v>
-      </c>
-      <c r="F33" s="41" t="n">
-        <v>2790.03</v>
+        <v>221.84</v>
+      </c>
+      <c r="F33" s="41">
+        <f>D5*E5</f>
+        <v/>
       </c>
       <c r="G33" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H33" s="40" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I33" s="40" t="n">
-        <v>16.9</v>
-      </c>
+      <c r="H33" s="40" t="n"/>
+      <c r="I33" s="40" t="n"/>
       <c r="J33" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K33" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L33" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M33" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N33" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O33" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P33" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q33" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R33" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S33" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T33" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U33" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V33" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W33" s="44" t="n"/>
       <c r="X33" s="44" t="n"/>
       <c r="Y33" s="43">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z33" s="44" t="n"/>
       <c r="AA33" s="44" t="n"/>
       <c r="AB33" s="45" t="n"/>
       <c r="AC33" s="46">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD33" s="47" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="48" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B34" s="52" t="inlineStr">
+      <c r="A34" s="38" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B34" s="39" t="inlineStr">
         <is>
-          <t>DMRGR</t>
+          <t>BSE</t>
         </is>
       </c>
-      <c r="C34" s="52" t="inlineStr">
+      <c r="C34" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D34" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="51" t="n">
-        <v>164</v>
-      </c>
-      <c r="F34" s="51" t="n">
-        <v>167</v>
-      </c>
-      <c r="G34" s="52" t="n"/>
-      <c r="H34" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="50" t="n">
-        <v>0</v>
-      </c>
+      <c r="D34" s="40" t="n">
+        <v>9</v>
+      </c>
+      <c r="E34" s="41" t="n">
+        <v>218.95</v>
+      </c>
+      <c r="F34" s="41">
+        <f>D6*E6</f>
+        <v/>
+      </c>
+      <c r="G34" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H34" s="40" t="n"/>
+      <c r="I34" s="40" t="n"/>
       <c r="J34" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K34" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L34" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M34" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N34" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O34" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P34" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q34" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R34" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S34" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T34" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U34" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V34" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W34" s="44" t="n"/>
       <c r="X34" s="44" t="n"/>
       <c r="Y34" s="43">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z34" s="44" t="n"/>
       <c r="AA34" s="44" t="n"/>
       <c r="AB34" s="45" t="n"/>
       <c r="AC34" s="46">
+        <f>if(B6="DIV", F6,"")</f>
+        <v/>
+      </c>
+      <c r="AD34" s="47" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="38" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B35" s="39" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C35" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D35" s="40" t="n">
+        <v>9</v>
+      </c>
+      <c r="E35" s="41" t="n">
+        <v>253.69</v>
+      </c>
+      <c r="F35" s="41" t="n">
+        <v>2283.21</v>
+      </c>
+      <c r="G35" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H35" s="40" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I35" s="40" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="J35" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K35" s="43">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <v/>
+      </c>
+      <c r="L35" s="44">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <v/>
+      </c>
+      <c r="M35" s="44">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <v/>
+      </c>
+      <c r="N35" s="45">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <v/>
+      </c>
+      <c r="O35" s="43">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <v/>
+      </c>
+      <c r="P35" s="44">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <v/>
+      </c>
+      <c r="Q35" s="44">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <v/>
+      </c>
+      <c r="R35" s="44">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <v/>
+      </c>
+      <c r="S35" s="43">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <v/>
+      </c>
+      <c r="T35" s="44">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <v/>
+      </c>
+      <c r="U35" s="44">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <v/>
+      </c>
+      <c r="V35" s="44">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <v/>
+      </c>
+      <c r="W35" s="44" t="n"/>
+      <c r="X35" s="44" t="n"/>
+      <c r="Y35" s="43">
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <v/>
+      </c>
+      <c r="Z35" s="44" t="n"/>
+      <c r="AA35" s="44" t="n"/>
+      <c r="AB35" s="45" t="n"/>
+      <c r="AC35" s="46">
+        <f>if(B7="DIV", F7,"")</f>
+        <v/>
+      </c>
+      <c r="AD35" s="47" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="38" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B36" s="39" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C36" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D36" s="40" t="n">
+        <v>11</v>
+      </c>
+      <c r="E36" s="41" t="n">
+        <v>253.64</v>
+      </c>
+      <c r="F36" s="41" t="n">
+        <v>2790.03</v>
+      </c>
+      <c r="G36" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H36" s="40" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I36" s="40" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J36" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K36" s="43">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="L36" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="M36" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <v/>
+      </c>
+      <c r="N36" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <v/>
+      </c>
+      <c r="O36" s="43">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="P36" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="Q36" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <v/>
+      </c>
+      <c r="R36" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <v/>
+      </c>
+      <c r="S36" s="43">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="T36" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="U36" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <v/>
+      </c>
+      <c r="V36" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <v/>
+      </c>
+      <c r="W36" s="44" t="n"/>
+      <c r="X36" s="44" t="n"/>
+      <c r="Y36" s="43">
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="Z36" s="44" t="n"/>
+      <c r="AA36" s="44" t="n"/>
+      <c r="AB36" s="45" t="n"/>
+      <c r="AC36" s="46">
+        <f>if(B8="DIV", F8,"")</f>
+        <v/>
+      </c>
+      <c r="AD36" s="47" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="48" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B37" s="52" t="inlineStr">
+        <is>
+          <t>DMRGR</t>
+        </is>
+      </c>
+      <c r="C37" s="52" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D37" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="51" t="n">
+        <v>164</v>
+      </c>
+      <c r="F37" s="51" t="n">
+        <v>167</v>
+      </c>
+      <c r="G37" s="52" t="n"/>
+      <c r="H37" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K37" s="43">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="L37" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <v/>
+      </c>
+      <c r="M37" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <v/>
+      </c>
+      <c r="N37" s="45">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <v/>
+      </c>
+      <c r="O37" s="43">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="P37" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <v/>
+      </c>
+      <c r="Q37" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <v/>
+      </c>
+      <c r="R37" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <v/>
+      </c>
+      <c r="S37" s="43">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="T37" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <v/>
+      </c>
+      <c r="U37" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <v/>
+      </c>
+      <c r="V37" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <v/>
+      </c>
+      <c r="W37" s="44" t="n"/>
+      <c r="X37" s="44" t="n"/>
+      <c r="Y37" s="43">
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="Z37" s="44" t="n"/>
+      <c r="AA37" s="44" t="n"/>
+      <c r="AB37" s="45" t="n"/>
+      <c r="AC37" s="46">
         <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
-      <c r="AD34" s="47" t="n"/>
-    </row>
-    <row r="35">
-      <c r="E35" s="53" t="n"/>
-      <c r="F35" s="53" t="n"/>
-      <c r="G35" s="54" t="n"/>
-      <c r="J35" s="53" t="n"/>
-      <c r="K35" s="53" t="n"/>
-      <c r="L35" s="53" t="n"/>
-      <c r="M35" s="56" t="n"/>
-      <c r="W35" s="53" t="n"/>
-      <c r="X35" s="53" t="n"/>
-      <c r="Y35" s="53" t="n"/>
-      <c r="Z35" s="53" t="n"/>
-      <c r="AA35" s="53" t="n"/>
-      <c r="AB35" s="53" t="n"/>
-      <c r="AC35" s="53" t="n"/>
-    </row>
-    <row r="36">
-      <c r="E36" s="53" t="n"/>
-      <c r="F36" s="53" t="n"/>
-      <c r="G36" s="54" t="n"/>
-      <c r="J36" s="53" t="n"/>
-      <c r="K36" s="53" t="n"/>
-      <c r="L36" s="53" t="n"/>
-      <c r="M36" s="56" t="n"/>
-      <c r="W36" s="53" t="n"/>
-      <c r="X36" s="53" t="n"/>
-      <c r="Y36" s="53" t="n"/>
-      <c r="Z36" s="53" t="n"/>
-      <c r="AA36" s="53" t="n"/>
-      <c r="AB36" s="53" t="n"/>
-      <c r="AC36" s="53" t="n"/>
-    </row>
-    <row r="37">
-      <c r="E37" s="53" t="n"/>
-      <c r="F37" s="53" t="n"/>
-      <c r="G37" s="54" t="n"/>
-      <c r="J37" s="53" t="n"/>
-      <c r="K37" s="53" t="n"/>
-      <c r="L37" s="53" t="n"/>
-      <c r="M37" s="56" t="n"/>
-      <c r="W37" s="53" t="n"/>
-      <c r="X37" s="53" t="n"/>
-      <c r="Y37" s="53" t="n"/>
-      <c r="Z37" s="53" t="n"/>
-      <c r="AA37" s="53" t="n"/>
-      <c r="AB37" s="53" t="n"/>
-      <c r="AC37" s="53" t="n"/>
+      <c r="AD37" s="47" t="n"/>
     </row>
     <row r="38">
       <c r="E38" s="53" t="n"/>
@@ -17462,6 +17522,7 @@
       <c r="J971" s="53" t="n"/>
       <c r="K971" s="53" t="n"/>
       <c r="L971" s="53" t="n"/>
+      <c r="M971" s="56" t="n"/>
       <c r="W971" s="53" t="n"/>
       <c r="X971" s="53" t="n"/>
       <c r="Y971" s="53" t="n"/>
@@ -17477,6 +17538,7 @@
       <c r="J972" s="53" t="n"/>
       <c r="K972" s="53" t="n"/>
       <c r="L972" s="53" t="n"/>
+      <c r="M972" s="56" t="n"/>
       <c r="W972" s="53" t="n"/>
       <c r="X972" s="53" t="n"/>
       <c r="Y972" s="53" t="n"/>
@@ -17492,6 +17554,7 @@
       <c r="J973" s="53" t="n"/>
       <c r="K973" s="53" t="n"/>
       <c r="L973" s="53" t="n"/>
+      <c r="M973" s="56" t="n"/>
       <c r="W973" s="53" t="n"/>
       <c r="X973" s="53" t="n"/>
       <c r="Y973" s="53" t="n"/>
@@ -17709,6 +17772,51 @@
       <c r="AA987" s="53" t="n"/>
       <c r="AB987" s="53" t="n"/>
       <c r="AC987" s="53" t="n"/>
+    </row>
+    <row r="988">
+      <c r="E988" s="53" t="n"/>
+      <c r="F988" s="53" t="n"/>
+      <c r="G988" s="54" t="n"/>
+      <c r="J988" s="53" t="n"/>
+      <c r="K988" s="53" t="n"/>
+      <c r="L988" s="53" t="n"/>
+      <c r="W988" s="53" t="n"/>
+      <c r="X988" s="53" t="n"/>
+      <c r="Y988" s="53" t="n"/>
+      <c r="Z988" s="53" t="n"/>
+      <c r="AA988" s="53" t="n"/>
+      <c r="AB988" s="53" t="n"/>
+      <c r="AC988" s="53" t="n"/>
+    </row>
+    <row r="989">
+      <c r="E989" s="53" t="n"/>
+      <c r="F989" s="53" t="n"/>
+      <c r="G989" s="54" t="n"/>
+      <c r="J989" s="53" t="n"/>
+      <c r="K989" s="53" t="n"/>
+      <c r="L989" s="53" t="n"/>
+      <c r="W989" s="53" t="n"/>
+      <c r="X989" s="53" t="n"/>
+      <c r="Y989" s="53" t="n"/>
+      <c r="Z989" s="53" t="n"/>
+      <c r="AA989" s="53" t="n"/>
+      <c r="AB989" s="53" t="n"/>
+      <c r="AC989" s="53" t="n"/>
+    </row>
+    <row r="990">
+      <c r="E990" s="53" t="n"/>
+      <c r="F990" s="53" t="n"/>
+      <c r="G990" s="54" t="n"/>
+      <c r="J990" s="53" t="n"/>
+      <c r="K990" s="53" t="n"/>
+      <c r="L990" s="53" t="n"/>
+      <c r="W990" s="53" t="n"/>
+      <c r="X990" s="53" t="n"/>
+      <c r="Y990" s="53" t="n"/>
+      <c r="Z990" s="53" t="n"/>
+      <c r="AA990" s="53" t="n"/>
+      <c r="AB990" s="53" t="n"/>
+      <c r="AC990" s="53" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$39"/>

--- a/dumps/Stocks/ITC Hotels Ltd.xlsx
+++ b/dumps/Stocks/ITC Hotels Ltd.xlsx
@@ -748,7 +748,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP973"/>
+  <dimension ref="A1:AP974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1098,11 +1098,11 @@
     </row>
     <row r="5">
       <c r="A5" s="86" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1114,18 +1114,18 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>187.22</v>
+        <v>181.75</v>
       </c>
       <c r="F5" t="n">
-        <v>1881.6</v>
+        <v>1826.6</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1134,11 +1134,11 @@
     </row>
     <row r="6">
       <c r="A6" s="86" t="n">
-        <v>46059</v>
+        <v>46063</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -1150,18 +1150,18 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>179.7</v>
+        <v>187.22</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1806</v>
+        <v>1881.6</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="7">
       <c r="A7" s="86" t="n">
-        <v>46057</v>
+        <v>46059</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1186,18 +1186,18 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>184.67</v>
+        <v>179.7</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1855.9</v>
+        <v>1806</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252611485581</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="8">
       <c r="A8" s="86" t="n">
-        <v>46017</v>
+        <v>46057</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1219,21 +1219,21 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>195.499</v>
+        <v>184.67</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>9823.950000000001</v>
+        <v>1855.9</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252609810990</t>
+          <t>CN#252611485581</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>49</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="9">
       <c r="A9" s="86" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1255,21 +1255,21 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>195.82</v>
+        <v>195.499</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1968</v>
+        <v>9823.950000000001</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252609755521</t>
+          <t>CN#252609810990</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>9.800000000000001</v>
+        <v>49</v>
       </c>
       <c r="J9" s="0">
         <f>Index!$C$2</f>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="10">
       <c r="A10" s="86" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1294,14 +1294,14 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>195.75</v>
+        <v>195.82</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1967.3</v>
+        <v>1968</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252609701573</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
@@ -1314,7 +1314,7 @@
     </row>
     <row r="11">
       <c r="A11" s="86" t="n">
-        <v>46008</v>
+        <v>46014</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1327,21 +1327,21 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>191.8683</v>
+        <v>195.75</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>5784.85</v>
+        <v>1967.3</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252609476500</t>
+          <t>CN#252609701573</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>28.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J11" s="0">
         <f>Index!$C$2</f>
@@ -1350,11 +1350,11 @@
     </row>
     <row r="12">
       <c r="A12" s="86" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1363,21 +1363,21 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>191.4</v>
+        <v>191.8683</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>15388.8</v>
+        <v>5784.85</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609476500</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>76.8</v>
+        <v>28.8</v>
       </c>
       <c r="J12" s="0">
         <f>Index!$C$2</f>
@@ -1386,11 +1386,11 @@
     </row>
     <row r="13">
       <c r="A13" s="86" t="n">
-        <v>45968</v>
+        <v>46007</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1399,21 +1399,21 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>209.1</v>
+        <v>191.4</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>2101.5</v>
+        <v>15388.8</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>CN#252607899666</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>10.5</v>
+        <v>76.8</v>
       </c>
       <c r="J13" s="0">
         <f>Index!$C$2</f>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="14">
       <c r="A14" s="86" t="n">
-        <v>45959</v>
+        <v>45968</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1438,18 +1438,18 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>220.768</v>
+        <v>209.1</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>2218.68</v>
+        <v>2101.5</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252607899666</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J14" s="0">
         <f>Index!$C$2</f>
@@ -1458,11 +1458,11 @@
     </row>
     <row r="15">
       <c r="A15" s="86" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -1471,128 +1471,66 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>220.768</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2218.68</v>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607497001</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J15" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="86" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E16" s="0" t="n">
         <v>220.1</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>5530</v>
       </c>
-      <c r="G15" s="0" t="inlineStr">
+      <c r="G16" s="0" t="inlineStr">
         <is>
           <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I16" s="0" t="n">
         <v>27.5</v>
       </c>
-      <c r="J15" s="0">
+      <c r="J16" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B16" s="39" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C16" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D16" s="40" t="n">
-        <v>20</v>
-      </c>
-      <c r="E16" s="41" t="n">
-        <v>221.84</v>
-      </c>
-      <c r="F16" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G16" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H16" s="40" t="n"/>
-      <c r="I16" s="40" t="n"/>
-      <c r="J16" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K16" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L16" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M16" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N16" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O16" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P16" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q16" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R16" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S16" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T16" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U16" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V16" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W16" s="44" t="n"/>
-      <c r="X16" s="44" t="n"/>
-      <c r="Y16" s="43">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z16" s="44" t="n"/>
-      <c r="AA16" s="44" t="n"/>
-      <c r="AB16" s="45" t="n"/>
-      <c r="AC16" s="46">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD16" s="47" t="n"/>
-    </row>
     <row r="17">
       <c r="A17" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B17" s="39" t="inlineStr">
         <is>
@@ -1605,13 +1543,13 @@
         </is>
       </c>
       <c r="D17" s="40" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E17" s="41" t="n">
-        <v>218.95</v>
+        <v>221.84</v>
       </c>
       <c r="F17" s="41">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G17" s="39" t="inlineStr">
@@ -1626,71 +1564,71 @@
         <v/>
       </c>
       <c r="K17" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L17" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M17" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N17" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O17" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P17" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q17" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R17" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S17" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T17" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U17" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V17" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W17" s="44" t="n"/>
       <c r="X17" s="44" t="n"/>
       <c r="Y17" s="43">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z17" s="44" t="n"/>
       <c r="AA17" s="44" t="n"/>
       <c r="AB17" s="45" t="n"/>
       <c r="AC17" s="46">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD17" s="47" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="38" t="n">
-        <v>45903</v>
+        <v>45947</v>
       </c>
       <c r="B18" s="39" t="inlineStr">
         <is>
@@ -1706,85 +1644,82 @@
         <v>9</v>
       </c>
       <c r="E18" s="41" t="n">
-        <v>253.69</v>
-      </c>
-      <c r="F18" s="41" t="n">
-        <v>2283.21</v>
+        <v>218.95</v>
+      </c>
+      <c r="F18" s="41">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G18" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H18" s="40" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="I18" s="40" t="n">
-        <v>13.83</v>
-      </c>
+      <c r="H18" s="40" t="n"/>
+      <c r="I18" s="40" t="n"/>
       <c r="J18" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K18" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L18" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M18" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N18" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O18" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P18" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q18" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R18" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S18" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T18" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U18" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V18" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W18" s="44" t="n"/>
       <c r="X18" s="44" t="n"/>
       <c r="Y18" s="43">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z18" s="44" t="n"/>
       <c r="AA18" s="44" t="n"/>
       <c r="AB18" s="45" t="n"/>
       <c r="AC18" s="46">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD18" s="47" t="n"/>
@@ -1804,13 +1739,13 @@
         </is>
       </c>
       <c r="D19" s="40" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="41" t="n">
-        <v>253.64</v>
+        <v>253.69</v>
       </c>
       <c r="F19" s="41" t="n">
-        <v>2790.03</v>
+        <v>2283.21</v>
       </c>
       <c r="G19" s="39" t="inlineStr">
         <is>
@@ -1818,190 +1753,275 @@
         </is>
       </c>
       <c r="H19" s="40" t="n">
-        <v>2.78</v>
+        <v>2.28</v>
       </c>
       <c r="I19" s="40" t="n">
-        <v>16.9</v>
+        <v>13.83</v>
       </c>
       <c r="J19" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K19" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L19" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M19" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N19" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O19" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P19" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q19" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R19" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S19" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T19" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U19" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V19" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W19" s="44" t="n"/>
       <c r="X19" s="44" t="n"/>
       <c r="Y19" s="43">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z19" s="44" t="n"/>
       <c r="AA19" s="44" t="n"/>
       <c r="AB19" s="45" t="n"/>
       <c r="AC19" s="46">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD19" s="47" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="48" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B20" s="52" t="inlineStr">
+      <c r="A20" s="38" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B20" s="39" t="inlineStr">
         <is>
-          <t>DMRGR</t>
+          <t>BSE</t>
         </is>
       </c>
-      <c r="C20" s="52" t="inlineStr">
+      <c r="C20" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D20" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="51" t="n">
-        <v>164</v>
-      </c>
-      <c r="F20" s="51" t="n">
-        <v>167</v>
-      </c>
-      <c r="G20" s="52" t="n"/>
-      <c r="H20" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="50" t="n">
-        <v>0</v>
+      <c r="D20" s="40" t="n">
+        <v>11</v>
+      </c>
+      <c r="E20" s="41" t="n">
+        <v>253.64</v>
+      </c>
+      <c r="F20" s="41" t="n">
+        <v>2790.03</v>
+      </c>
+      <c r="G20" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H20" s="40" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I20" s="40" t="n">
+        <v>16.9</v>
       </c>
       <c r="J20" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K20" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L20" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M20" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N20" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O20" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P20" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q20" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R20" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S20" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T20" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U20" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V20" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W20" s="44" t="n"/>
       <c r="X20" s="44" t="n"/>
       <c r="Y20" s="43">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z20" s="44" t="n"/>
       <c r="AA20" s="44" t="n"/>
       <c r="AB20" s="45" t="n"/>
       <c r="AC20" s="46">
+        <f>if(B8="DIV", F8,"")</f>
+        <v/>
+      </c>
+      <c r="AD20" s="47" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="48" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B21" s="52" t="inlineStr">
+        <is>
+          <t>DMRGR</t>
+        </is>
+      </c>
+      <c r="C21" s="52" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D21" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="51" t="n">
+        <v>164</v>
+      </c>
+      <c r="F21" s="51" t="n">
+        <v>167</v>
+      </c>
+      <c r="G21" s="52" t="n"/>
+      <c r="H21" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K21" s="43">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="L21" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <v/>
+      </c>
+      <c r="M21" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <v/>
+      </c>
+      <c r="N21" s="45">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <v/>
+      </c>
+      <c r="O21" s="43">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="P21" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <v/>
+      </c>
+      <c r="Q21" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <v/>
+      </c>
+      <c r="R21" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <v/>
+      </c>
+      <c r="S21" s="43">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="T21" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <v/>
+      </c>
+      <c r="U21" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <v/>
+      </c>
+      <c r="V21" s="44">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <v/>
+      </c>
+      <c r="W21" s="44" t="n"/>
+      <c r="X21" s="44" t="n"/>
+      <c r="Y21" s="43">
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="Z21" s="44" t="n"/>
+      <c r="AA21" s="44" t="n"/>
+      <c r="AB21" s="45" t="n"/>
+      <c r="AC21" s="46">
         <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
-      <c r="AD20" s="47" t="n"/>
-    </row>
-    <row r="21">
-      <c r="E21" s="53" t="n"/>
-      <c r="F21" s="53" t="n"/>
-      <c r="G21" s="54" t="n"/>
-      <c r="J21" s="53" t="n"/>
-      <c r="K21" s="53" t="n"/>
-      <c r="L21" s="53" t="n"/>
-      <c r="M21" s="56" t="n"/>
-      <c r="W21" s="53" t="n"/>
-      <c r="X21" s="53" t="n"/>
-      <c r="Y21" s="53" t="n"/>
-      <c r="Z21" s="53" t="n"/>
-      <c r="AA21" s="53" t="n"/>
-      <c r="AB21" s="53" t="n"/>
-      <c r="AC21" s="53" t="n"/>
+      <c r="AD21" s="47" t="n"/>
     </row>
     <row r="22">
       <c r="E22" s="53" t="n"/>
@@ -16970,6 +16990,7 @@
       <c r="J957" s="53" t="n"/>
       <c r="K957" s="53" t="n"/>
       <c r="L957" s="53" t="n"/>
+      <c r="M957" s="56" t="n"/>
       <c r="W957" s="53" t="n"/>
       <c r="X957" s="53" t="n"/>
       <c r="Y957" s="53" t="n"/>
@@ -17217,6 +17238,21 @@
       <c r="AA973" s="53" t="n"/>
       <c r="AB973" s="53" t="n"/>
       <c r="AC973" s="53" t="n"/>
+    </row>
+    <row r="974">
+      <c r="E974" s="53" t="n"/>
+      <c r="F974" s="53" t="n"/>
+      <c r="G974" s="54" t="n"/>
+      <c r="J974" s="53" t="n"/>
+      <c r="K974" s="53" t="n"/>
+      <c r="L974" s="53" t="n"/>
+      <c r="W974" s="53" t="n"/>
+      <c r="X974" s="53" t="n"/>
+      <c r="Y974" s="53" t="n"/>
+      <c r="Z974" s="53" t="n"/>
+      <c r="AA974" s="53" t="n"/>
+      <c r="AB974" s="53" t="n"/>
+      <c r="AC974" s="53" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$39"/>
